--- a/ocms/src/test/resources/TestData/AgentTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentTemplateData.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA6D4B6-454F-4336-BF1F-A8F0758AFEB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Invalid" sheetId="2" r:id="rId2"/>
-    <sheet name="TemplateTab" sheetId="3" r:id="rId3"/>
-    <sheet name="Queries" sheetId="4" r:id="rId4"/>
-    <sheet name="AuxTab" sheetId="5" r:id="rId5"/>
-    <sheet name="WidgetTab" sheetId="6" r:id="rId6"/>
-    <sheet name="OpHoursTab" sheetId="7" r:id="rId7"/>
+    <sheet name="ScreenTab" sheetId="8" r:id="rId2"/>
+    <sheet name="Features" sheetId="9" r:id="rId3"/>
+    <sheet name="Invalid" sheetId="2" r:id="rId4"/>
+    <sheet name="TemplateTab" sheetId="3" r:id="rId5"/>
+    <sheet name="Queries" sheetId="4" r:id="rId6"/>
+    <sheet name="AuxTab" sheetId="5" r:id="rId7"/>
+    <sheet name="WidgetTab" sheetId="6" r:id="rId8"/>
+    <sheet name="OpHoursTab" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
   <si>
     <t>Template Name</t>
   </si>
@@ -37,18 +44,12 @@
     <t>MacBook</t>
   </si>
   <si>
-    <t>Mag</t>
-  </si>
-  <si>
     <t>plate</t>
   </si>
   <si>
     <t>Temp</t>
   </si>
   <si>
-    <t>tude</t>
-  </si>
-  <si>
     <t>Screen Name</t>
   </si>
   <si>
@@ -89,9 +90,6 @@
   </si>
   <si>
     <t>India&gt;South&gt;Bangalore&gt;ProductQA</t>
-  </si>
-  <si>
-    <t>AutoTemplate1</t>
   </si>
   <si>
     <t>theme-teal-red</t>
@@ -105,9 +103,6 @@
   FROM [Product_OCM].[dbo].[tmac_template]</t>
   </si>
   <si>
-    <t>India&gt;South&gt;Bangalore&gt;team23</t>
-  </si>
-  <si>
     <t>AutoTemplate2</t>
   </si>
   <si>
@@ -130,13 +125,6 @@
   </si>
   <si>
     <t>Template</t>
-  </si>
-  <si>
-    <t>select TT.name as [Template Name], TT.theme as [Theme Options],  
-  TT.orgid as [Org. Unit], TT.lastchangedby as [Last Changed By],
- FORMAT(TT.[LastChangedOn], 'dd/MM/yyyy HH:mm:ss') as [Last Changed On],
-  AT.TeamName as [Team Name] from tmac_template TT, AGT_Teams AT where AT.TeamID=TT.orgid
-  order by TT.name;</t>
   </si>
   <si>
     <t xml:space="preserve">Template Screen </t>
@@ -157,92 +145,150 @@
     <t>Template OpHours</t>
   </si>
   <si>
+    <t>AuxCode</t>
+  </si>
+  <si>
+    <t>UpdatedAuxCode</t>
+  </si>
+  <si>
+    <t>1 - Paid Break,6 - Outbound</t>
+  </si>
+  <si>
+    <t>7 - Logout</t>
+  </si>
+  <si>
+    <t>AuxModification</t>
+  </si>
+  <si>
+    <t>Delete Record</t>
+  </si>
+  <si>
+    <t>WidgetList</t>
+  </si>
+  <si>
+    <t>UdatedWidgetList</t>
+  </si>
+  <si>
+    <t>Screen List</t>
+  </si>
+  <si>
+    <t>Template Id</t>
+  </si>
+  <si>
+    <t>TRS</t>
+  </si>
+  <si>
+    <t>WidgetModification</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>WeekDay</t>
+  </si>
+  <si>
+    <t>FromTime</t>
+  </si>
+  <si>
+    <t>ToTime</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>02:00:00</t>
+  </si>
+  <si>
+    <t>07:00:00</t>
+  </si>
+  <si>
+    <t>OpHrstabModification</t>
+  </si>
+  <si>
+    <t>Delete OPrsRecord</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>select TT.name as [Template Name], TT.theme as [Theme Options],  
+  TT.lastchangedby as [Last Changed By],
+ FORMAT(TT.[LastChangedOn], 'dd/MM/yyyy HH:mm:ss') as [Last Changed On],
+  AT.TeamName as [Org.Unit] from tmac_template TT, AGT_Teams AT where AT.TeamID=TT.orgid
+  order by TT.name;</t>
+  </si>
+  <si>
+    <t>UpdatedScreenList</t>
+  </si>
+  <si>
+    <t>TextChat</t>
+  </si>
+  <si>
+    <t>TextChatScreen</t>
+  </si>
+  <si>
+    <t>AgentPerformance, TeamStatus</t>
+  </si>
+  <si>
+    <t>Amereica&gt;Washing Tone&gt;Branch&gt;Coding</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
     <t xml:space="preserve">Select TT.name as [Template Name], TT.lastchangedby as [Last Changed By],
 FORMAT(TT.[LastChangedOn], 'dd/MM/yyyy HH:mm:ss') as [Last Changed On],
-AT.TeamName as [Team Name] from tmac_template TT, AGT_Teams AT where AT.TeamID=TT.orgid
+AT.TeamName as [Org.Unit] from tmac_template TT, AGT_Teams AT where AT.TeamID=TT.orgid
 order by TT.name;
 </t>
   </si>
   <si>
-    <t>AuxCode</t>
-  </si>
-  <si>
-    <t>UpdatedAuxCode</t>
-  </si>
-  <si>
-    <t>1 - Paid Break,6 - Outbound</t>
-  </si>
-  <si>
-    <t>7 - Logout</t>
-  </si>
-  <si>
-    <t>AuxModification</t>
-  </si>
-  <si>
-    <t>Delete Record</t>
-  </si>
-  <si>
-    <t>WidgetList</t>
-  </si>
-  <si>
-    <t>UdatedWidgetList</t>
-  </si>
-  <si>
-    <t>Screen List</t>
-  </si>
-  <si>
-    <t>Template Id</t>
-  </si>
-  <si>
-    <t>AgentPerformance,TeamStatus</t>
-  </si>
-  <si>
-    <t>TRS</t>
-  </si>
-  <si>
-    <t>WidgetModification</t>
-  </si>
-  <si>
-    <t>Voice</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>WeekDay</t>
-  </si>
-  <si>
-    <t>FromTime</t>
-  </si>
-  <si>
-    <t>ToTime</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>02:00:00</t>
-  </si>
-  <si>
-    <t>07:00:00</t>
-  </si>
-  <si>
-    <t>OpHrstabModification</t>
-  </si>
-  <si>
-    <t>Delete OPrsRecord</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
+    <t>Enable Screen Capture</t>
+  </si>
+  <si>
+    <t>TRS Camera Capture Enabled</t>
+  </si>
+  <si>
+    <t>Enable Location</t>
+  </si>
+  <si>
+    <t>Face Auth Enabled</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Telegram</t>
+  </si>
+  <si>
+    <t>TextApp</t>
+  </si>
+  <si>
+    <t>TRS AUTO UPDATE INTERVAL</t>
+  </si>
+  <si>
+    <t>TRS LOG UPLOAD URL</t>
+  </si>
+  <si>
+    <t>Updated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -317,6 +363,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,24 +636,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -614,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -622,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -631,17 +678,165 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0515C8-66BF-4433-8445-9A90AB5D529D}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B36A5D-3AB2-4C8E-A9DD-224FFABF9CD5}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -649,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -657,173 +852,39 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -832,47 +893,85 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -881,59 +980,49 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>52</v>
+    </row>
+    <row r="2" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -942,69 +1031,187 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
       <c r="B4" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/AgentTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentTemplateData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA6D4B6-454F-4336-BF1F-A8F0758AFEB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,7 @@
     <sheet name="OpHoursTab" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
   <si>
     <t>Template Name</t>
   </si>
@@ -284,11 +279,17 @@
   <si>
     <t>Updated</t>
   </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,7 +350,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -364,6 +364,9 @@
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,24 +639,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -678,20 +681,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0515C8-66BF-4433-8445-9A90AB5D529D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -734,24 +737,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B36A5D-3AB2-4C8E-A9DD-224FFABF9CD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -787,22 +790,22 @@
       <c r="A2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>70</v>
       </c>
       <c r="H2" t="s">
@@ -826,17 +829,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -893,127 +896,146 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:2" ht="172.9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1031,16 +1053,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1083,18 +1105,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1149,14 +1171,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1179,10 +1204,10 @@
       <c r="A2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D2" t="s">
@@ -1196,10 +1221,10 @@
       <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1207,10 +1232,10 @@
       <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>51</v>
       </c>
     </row>

--- a/ocms/src/test/resources/TestData/AgentTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentTemplateData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242C14F-45F9-4E14-A8C3-092BA772FE4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,6 @@
     <sheet name="OpHoursTab" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>Template Name</t>
   </si>
@@ -82,9 +87,6 @@
   </si>
   <si>
     <t>Query</t>
-  </si>
-  <si>
-    <t>India&gt;South&gt;Bangalore&gt;ProductQA</t>
   </si>
   <si>
     <t>theme-teal-red</t>
@@ -108,9 +110,6 @@
   </si>
   <si>
     <t>theme-pink-grey-dark</t>
-  </si>
-  <si>
-    <t>India&gt;South&gt;Mangalore&gt;team80</t>
   </si>
   <si>
     <t>theme-default-dark</t>
@@ -146,12 +145,6 @@
     <t>UpdatedAuxCode</t>
   </si>
   <si>
-    <t>1 - Paid Break,6 - Outbound</t>
-  </si>
-  <si>
-    <t>7 - Logout</t>
-  </si>
-  <si>
     <t>AuxModification</t>
   </si>
   <si>
@@ -237,9 +230,6 @@
     <t>AgentPerformance, TeamStatus</t>
   </si>
   <si>
-    <t>Amereica&gt;Washing Tone&gt;Branch&gt;Coding</t>
-  </si>
-  <si>
     <t>Google</t>
   </si>
   <si>
@@ -253,9 +243,6 @@
     <t>Enable Screen Capture</t>
   </si>
   <si>
-    <t>TRS Camera Capture Enabled</t>
-  </si>
-  <si>
     <t>Enable Location</t>
   </si>
   <si>
@@ -265,9 +252,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>Telegram</t>
-  </si>
-  <si>
     <t>TextApp</t>
   </si>
   <si>
@@ -280,16 +264,52 @@
     <t>Updated</t>
   </si>
   <si>
+    <t>America&gt;Washing Tone&gt;Branch&gt;Coding</t>
+  </si>
+  <si>
+    <t>America&gt;Washing Tone&gt;Branch&gt;Agent</t>
+  </si>
+  <si>
+    <t>FaceBook</t>
+  </si>
+  <si>
     <t>Modified</t>
   </si>
   <si>
-    <t>Deleted</t>
+    <t>Advanced Fax</t>
+  </si>
+  <si>
+    <t>theme-blue-grey-dark</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>Updated WeekDay</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>India&gt;South&gt;Bangalore&gt;Dell</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>7 - Logout</t>
+  </si>
+  <si>
+    <t>1 - Paid Break,6 - Outbound</t>
+  </si>
+  <si>
+    <t>Is Camera Capture Enabled</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,6 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -364,9 +385,6 @@
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,24 +657,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -681,20 +699,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0515C8-66BF-4433-8445-9A90AB5D529D}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -702,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
@@ -716,19 +734,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -737,24 +755,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B36A5D-3AB2-4C8E-A9DD-224FFABF9CD5}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -762,22 +780,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" t="s">
-        <v>74</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
@@ -788,39 +806,39 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -829,17 +847,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -876,7 +894,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -884,7 +902,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -896,155 +914,154 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="47.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="172.9" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1053,16 +1070,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1070,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
@@ -1084,39 +1102,42 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1124,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
@@ -1136,33 +1157,41 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1171,27 +1200,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
@@ -1199,44 +1229,56 @@
       <c r="E1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>51</v>
+      <c r="B4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
